--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49241AC4-6B4E-4816-A168-0C8DEC202416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC78BC10-2DA4-4D6E-9DD9-148B41313D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -32,20 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,6 +208,12 @@
   </si>
   <si>
     <t>12/23,26-29</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>8/31, 9/1,2</t>
   </si>
 </sst>
 </file>
@@ -3655,9 +3653,9 @@
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3816,7 +3814,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>163.53199999999998</v>
+        <v>164.78199999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3826,7 +3824,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>209.58</v>
+        <v>207.83</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5073,7 +5071,9 @@
       <c r="A71" s="39">
         <v>44774</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="C71" s="14">
         <v>1.25</v>
       </c>
@@ -5084,10 +5084,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H71" s="40"/>
+      <c r="H71" s="40">
+        <v>3</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39">
@@ -5176,7 +5180,9 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
+      <c r="A76" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
       <c r="D76" s="40"/>
@@ -5192,15 +5198,19 @@
       <c r="K76" s="21"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
+      <c r="A77" s="39">
+        <v>44927</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="40"/>
       <c r="E77" s="9"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
@@ -6025,17 +6035,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E607F347-487E-43DB-9B9B-016E50D85E99}">

--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>10/3,11,12,19,20,24,25,26/2023</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>11/7,9,14,16,21,23,28/2023</t>
+  </si>
+  <si>
+    <t>VL(12-0-0)</t>
+  </si>
+  <si>
+    <t>12/07-13,18-22,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1559,7 @@
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1718,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1716,7 +1728,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3246,13 +3258,15 @@
         <v>45200</v>
       </c>
       <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="9"/>
@@ -3264,13 +3278,15 @@
         <v>45231</v>
       </c>
       <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="40"/>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
@@ -3947,9 +3963,9 @@
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,7 +4124,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.531999999999996</v>
+        <v>77.531999999999996</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4398,10 +4414,16 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="24">
+        <v>45231</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>7</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12"/>
       <c r="G22" s="14" t="str">
@@ -4411,13 +4433,19 @@
       <c r="H22" s="12"/>
       <c r="I22" s="9"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
+      <c r="K22" s="21" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="13">
+        <v>12</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="str">
@@ -4427,7 +4455,9 @@
       <c r="H23" s="13"/>
       <c r="I23" s="10"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="16"/>
+      <c r="K23" s="16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
